--- a/data/Sources/southamerica.xlsx
+++ b/data/Sources/southamerica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="357">
   <si>
     <t>From new raw data</t>
   </si>
@@ -1076,6 +1076,15 @@
   </si>
   <si>
     <t>Results from query to  NASA/IPAC Extragalactic Database (NED),</t>
+  </si>
+  <si>
+    <t>http://ned.ipac.caltech.edu/cgi-bin/datasearch?objname=IRAS+22491-1808&amp;meas_type=bot&amp;ebars_spec=ebars&amp;label_spec=no&amp;x_spec=freq&amp;y_spec=Fnu_jy&amp;xr=-1&amp;of=table&amp;search_type=Photometry</t>
+  </si>
+  <si>
+    <t>Freq (Hz)</t>
+  </si>
+  <si>
+    <t>SED (Jy)</t>
   </si>
 </sst>
 </file>
@@ -1119,11 +1128,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,6 +1143,51 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253943</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="http://ned.ipac.caltech.edu/results/photo_12735.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5543550" y="1"/>
+          <a:ext cx="4463993" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1419,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q101"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1430,4263 +1486,4874 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="2">
+        <v>1.09E+18</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.7499999999999998E-10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
+      <c r="N2"/>
+      <c r="V2" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="2">
+        <v>3.02E+17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.7499999999999998E-9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" s="2">
+        <v>1980000000000000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="2">
+        <v>1320000000000000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.4699999999999999E-4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" s="2">
+        <v>819000000000000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.3900000000000001E-4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="2">
+        <v>681000000000000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.07E-3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="2">
+        <v>681000000000000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="2">
+        <v>457000000000000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9.8500000000000006E-6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2">
+        <v>379000000000000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
+    <row r="11" spans="1:22">
+      <c r="A11" s="2">
+        <v>182000000000000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.1700000000000001E-3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="2">
+        <v>141000000000000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.6100000000000004E-3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="2">
+        <v>90800000000000</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="2">
+        <v>50000000000000</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:22">
+      <c r="A15" s="2">
+        <v>48400000000000</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9.2500000000000004E-4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="2">
+        <v>38900000000000</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1">
+    <row r="17" spans="1:21">
+      <c r="A17" s="2">
+        <v>34900000000000</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.1799999999999998E-4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C17" s="2">
+      <c r="G17" s="2">
         <v>2.9999999999999998E-15</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F17" s="2">
+      <c r="J17" s="2">
         <v>1.09E+18</v>
       </c>
-      <c r="G17" s="2">
+      <c r="K17" s="2">
         <v>2.7499999999999998E-10</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="M17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1">
+    <row r="18" spans="1:21">
+      <c r="A18" s="2">
+        <v>31000000000000</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F18" s="2">
+      <c r="J18" s="2">
         <v>3.15E+17</v>
       </c>
-      <c r="H18" s="2">
+      <c r="L18" s="2">
         <v>1.3799999999999999E-8</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="M18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1">
+      <c r="U18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="2">
+        <v>31000000000000</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.3800000000000001E-5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C19" s="2">
+      <c r="G19" s="2">
         <v>8.3E-15</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F19" s="2">
+      <c r="J19" s="2">
         <v>3.02E+17</v>
       </c>
-      <c r="G19" s="2">
+      <c r="K19" s="2">
         <v>2.7499999999999998E-9</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="M19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1">
+    <row r="20" spans="1:21">
+      <c r="A20" s="2">
+        <v>28500000000000</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.1199999999999999E-5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="1">
+      <c r="G20" s="1">
         <v>18.260000000000002</v>
       </c>
-      <c r="D20" s="1">
+      <c r="H20" s="1">
         <v>0.05</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="2">
+      <c r="J20" s="2">
         <v>1980000000000000</v>
       </c>
-      <c r="G20" s="2">
+      <c r="K20" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H20" s="2">
+      <c r="L20" s="2">
         <v>8.3000000000000002E-6</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="M20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1">
+      <c r="U20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="2">
+        <v>28500000000000</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.4399999999999999E-5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C21" s="1">
+      <c r="G21" s="1">
         <v>17.920000000000002</v>
       </c>
-      <c r="D21" s="1">
+      <c r="H21" s="1">
         <v>0.01</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F21" s="2">
+      <c r="J21" s="2">
         <v>1320000000000000</v>
       </c>
-      <c r="G21" s="2">
+      <c r="K21" s="2">
         <v>2.4699999999999999E-4</v>
       </c>
-      <c r="H21" s="2">
+      <c r="L21" s="2">
         <v>2.2699999999999999E-6</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="M21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1">
+      <c r="U21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="2">
+        <v>26500000000000</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.14E-3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="1">
+      <c r="G22" s="1">
         <v>17.2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="H22" s="1">
         <v>0.2</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F22" s="2">
+      <c r="J22" s="2">
         <v>819000000000000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="K22" s="2">
         <v>2.3900000000000001E-4</v>
       </c>
-      <c r="H22" s="2">
+      <c r="L22" s="2">
         <v>4.8300000000000002E-5</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="M22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1">
+      <c r="U22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="2">
+        <v>25200000000000</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C23" s="1">
+      <c r="G23" s="1">
         <v>16.5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="H23" s="1">
         <v>0.2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F23" s="2">
+      <c r="J23" s="2">
         <v>681000000000000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="K23" s="2">
         <v>1.07E-3</v>
       </c>
-      <c r="H23" s="2">
+      <c r="L23" s="2">
         <v>2.1599999999999999E-4</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="M23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:21">
+      <c r="A24" s="2">
+        <v>24400000000000</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.7700000000000002E-5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C24" s="1">
+      <c r="G24" s="1">
         <v>16.440000000000001</v>
       </c>
-      <c r="D24" s="1">
+      <c r="H24" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F24" s="2">
+      <c r="J24" s="2">
         <v>681000000000000</v>
       </c>
-      <c r="G24" s="2">
+      <c r="K24" s="2">
         <v>1.1299999999999999E-3</v>
       </c>
-      <c r="H24" s="2">
+      <c r="L24" s="2">
         <v>7.2899999999999997E-5</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="M24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1">
+      <c r="U24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="2">
+        <v>23600000000000</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C25" s="2">
+      <c r="G25" s="2">
         <v>4.4999999999999998E-14</v>
       </c>
-      <c r="D25" s="3">
+      <c r="H25" s="3">
         <v>0.2</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F25" s="2">
+      <c r="J25" s="2">
         <v>457000000000000</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1">
+    <row r="26" spans="1:21">
+      <c r="A26" s="2">
+        <v>23400000000000</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.9799999999999998E-4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="1">
+      <c r="G26" s="1">
         <v>15</v>
       </c>
-      <c r="D26" s="1">
+      <c r="H26" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F26" s="2">
+      <c r="J26" s="2">
         <v>379000000000000</v>
       </c>
-      <c r="G26" s="2">
+      <c r="K26" s="2">
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="H26" s="2">
+      <c r="L26" s="2">
         <v>1.64E-4</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="M26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1">
+      <c r="U26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="2">
+        <v>23400000000000</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.0799999999999999E-4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="1">
+      <c r="G27" s="1">
         <v>13.26</v>
       </c>
-      <c r="D27" s="1">
+      <c r="H27" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="2">
+      <c r="J27" s="2">
         <v>182000000000000</v>
       </c>
-      <c r="G27" s="2">
+      <c r="K27" s="2">
         <v>5.1700000000000001E-3</v>
       </c>
-      <c r="H27" s="2">
+      <c r="L27" s="2">
         <v>3.3300000000000002E-4</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="M27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1">
+      <c r="U27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="2">
+        <v>21400000000000</v>
+      </c>
+      <c r="B28" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C28" s="1">
+      <c r="G28" s="1">
         <v>12.97</v>
       </c>
-      <c r="D28" s="1">
+      <c r="H28" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F28" s="2">
+      <c r="J28" s="2">
         <v>141000000000000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="K28" s="2">
         <v>4.6100000000000004E-3</v>
       </c>
-      <c r="H28" s="2">
+      <c r="L28" s="2">
         <v>2.9700000000000001E-4</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="M28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1">
+      <c r="U28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="2">
+        <v>20000000000000</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C29" s="2">
+      <c r="G29" s="2">
         <v>4.8999999999999999E-14</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F29" s="2">
+      <c r="J29" s="2">
         <v>90800000000000</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1">
+      <c r="U29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="2">
+        <v>19800000000000</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="2">
+      <c r="J30" s="2">
         <v>54400000000000</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1">
+      <c r="U30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="2">
+        <v>19300000000000</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C31" s="1">
+      <c r="G31" s="1">
         <v>6.7</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="2">
+      <c r="J31" s="2">
         <v>50000000000000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="K31" s="2">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="M31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1">
+      <c r="U31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="2">
+        <v>19300000000000</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8.81E-5</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C32" s="2">
+      <c r="G32" s="2">
         <v>4.4800000000000001E-13</v>
       </c>
-      <c r="D32" s="2">
+      <c r="H32" s="2">
         <v>3.1E-14</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="2">
+      <c r="J32" s="2">
         <v>48400000000000</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1">
+      <c r="U32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="2">
+        <v>18700000000000</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C33" s="2">
+      <c r="G33" s="2">
         <v>9.9000000000000002E-13</v>
       </c>
-      <c r="D33" s="2">
+      <c r="H33" s="2">
         <v>7.0000000000000005E-14</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="2">
+      <c r="J33" s="2">
         <v>38900000000000</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1">
+      <c r="U33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="2">
+        <v>18300000000000</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="2">
+      <c r="G34" s="2">
         <v>1.1099999999999999E-13</v>
       </c>
-      <c r="D34" s="2">
+      <c r="H34" s="2">
         <v>2.0000000000000002E-15</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="2">
+      <c r="J34" s="2">
         <v>34900000000000</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1">
+      <c r="U34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="2">
+        <v>17600000000000</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.26E-4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C35" s="2">
+      <c r="G35" s="2">
         <v>9.7999999999999996E-22</v>
       </c>
-      <c r="D35" s="2">
+      <c r="H35" s="2">
         <v>1.3E-22</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="2">
+      <c r="J35" s="2">
         <v>31000000000000</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1">
+      <c r="U35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="2">
+        <v>17600000000000</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9.3700000000000001E-5</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
         <v>20</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="2">
+      <c r="G36" s="2">
         <v>1.36E-14</v>
       </c>
-      <c r="D36" s="2">
+      <c r="H36" s="2">
         <v>3.9000000000000003E-15</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="2">
+      <c r="J36" s="2">
         <v>31000000000000</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1">
+      <c r="U36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="2">
+        <v>16000000000000</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
         <v>21</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="2">
+      <c r="J37" s="2">
         <v>30000000000000</v>
       </c>
-      <c r="H37" s="2">
+      <c r="L37" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="M37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1">
+      <c r="U37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="2">
+        <v>16000000000000</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.16E-4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
         <v>22</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="2">
+      <c r="G38" s="2">
         <v>3.1999999999999999E-15</v>
       </c>
-      <c r="D38" s="2">
+      <c r="H38" s="2">
         <v>1.0999999999999999E-15</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>28500000000000</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1">
+      <c r="U38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="2">
+        <v>15000000000000</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C39" s="2">
+      <c r="G39" s="2">
         <v>4.0999999999999999E-22</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="2">
+      <c r="J39" s="2">
         <v>28500000000000</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="S39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="T39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1">
+      <c r="U39" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="2">
+        <v>12600000000000</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
         <v>24</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="2">
+      <c r="G40" s="2">
         <v>3.039E-13</v>
       </c>
-      <c r="D40" s="2">
+      <c r="H40" s="2">
         <v>2.1300000000000001E-14</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="2">
+      <c r="J40" s="2">
         <v>26500000000000</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1">
+      <c r="U40" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="2">
+        <v>12000000000000</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
         <v>25</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C41" s="1">
+      <c r="G41" s="1">
         <v>0.08</v>
       </c>
-      <c r="D41" s="3">
+      <c r="H41" s="3">
         <v>0.3</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="2">
+      <c r="J41" s="2">
         <v>25200000000000</v>
       </c>
-      <c r="G41" s="2">
+      <c r="K41" s="2">
         <v>0.08</v>
       </c>
-      <c r="H41" s="2">
+      <c r="L41" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="M41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="Q41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="S41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Q41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1">
+      <c r="U41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="2">
+        <v>12000000000000</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.751</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
         <v>26</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="2">
+      <c r="J42" s="2">
         <v>25000000000000</v>
       </c>
-      <c r="H42" s="2">
+      <c r="L42" s="2">
         <v>0.09</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="1" t="s">
+      <c r="M42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="U42" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1">
+    <row r="43" spans="1:21">
+      <c r="A43" s="2">
+        <v>12000000000000</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
         <v>27</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="2">
+      <c r="J43" s="2">
         <v>25000000000000</v>
       </c>
-      <c r="H43" s="2">
+      <c r="L43" s="2">
         <v>0.09</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="M43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="T43" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="1">
+    <row r="44" spans="1:21">
+      <c r="A44" s="2">
+        <v>12000000000000</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
         <v>28</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="2">
+      <c r="J44" s="2">
         <v>25000000000000</v>
       </c>
-      <c r="H44" s="2">
+      <c r="L44" s="2">
         <v>0.11899999999999999</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="1" t="s">
+      <c r="M44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="Q44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="T44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="1">
+      <c r="U44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="2">
+        <v>9990000000000</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
         <v>29</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="2">
+      <c r="J45" s="2">
         <v>24400000000000</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="1">
+      <c r="U45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="2">
+        <v>8950000000000</v>
+      </c>
+      <c r="B46" s="2">
+        <v>5.3799999999999996E-4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
         <v>30</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="2">
+      <c r="G46" s="2">
         <v>9.1999999999999996E-15</v>
       </c>
-      <c r="D46" s="2">
+      <c r="H46" s="2">
         <v>1.6E-15</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="2">
+      <c r="J46" s="2">
         <v>24400000000000</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="1">
+      <c r="U46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="2">
+        <v>8950000000000</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
         <v>31</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="2">
+      <c r="J47" s="2">
         <v>24200000000000</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="Q47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="S47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="T47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="1">
+      <c r="U47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="2">
+        <v>5000000000000</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5.54</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1">
         <v>32</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C48" s="2">
+      <c r="G48" s="2">
         <v>2.855E-13</v>
       </c>
-      <c r="D48" s="2">
+      <c r="H48" s="2">
         <v>1.1600000000000001E-14</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="2">
+      <c r="J48" s="2">
         <v>23600000000000</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="Q48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="S48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="T48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="1">
+      <c r="U48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="2">
+        <v>5000000000000</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5.28</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1">
         <v>33</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C49" s="2">
+      <c r="G49" s="2">
         <v>6.9699999999999996E-14</v>
       </c>
-      <c r="D49" s="2">
+      <c r="H49" s="2">
         <v>6.8000000000000001E-15</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="2">
+      <c r="J49" s="2">
         <v>23400000000000</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="S49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="T49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="1">
+      <c r="U49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="2">
+        <v>5000000000000</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5.44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
         <v>34</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C50" s="2">
+      <c r="G50" s="2">
         <v>4.8799999999999997E-21</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="2">
+      <c r="J50" s="2">
         <v>23400000000000</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="S50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="T50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="1">
+      <c r="U50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="2">
+        <v>4930000000000</v>
+      </c>
+      <c r="B51" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1">
         <v>35</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="1">
+      <c r="G51" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="2">
+      <c r="J51" s="2">
         <v>21400000000000</v>
       </c>
-      <c r="G51" s="2">
+      <c r="K51" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="1" t="s">
+      <c r="M51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="Q51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="S51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="T51" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="U51" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="1">
+    <row r="52" spans="1:21">
+      <c r="A52" s="2">
+        <v>3150000000000</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5.45</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1">
         <v>36</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="2">
+      <c r="J52" s="2">
         <v>20900000000000</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="Q52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="S52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="T52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="1">
+      <c r="U52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="2">
+        <v>3000000000000</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1">
         <v>37</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="2">
+      <c r="J53" s="2">
         <v>20900000000000</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="Q53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="S53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="T53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="1">
+      <c r="U53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="2">
+        <v>3000000000000</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4.45</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1">
         <v>38</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="2">
+      <c r="J54" s="2">
         <v>20900000000000</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="S54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="T54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1">
+      <c r="U54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="2">
+        <v>3000000000000</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1">
         <v>39</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F55" s="2">
+      <c r="J55" s="2">
         <v>20900000000000</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="S55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="T55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1">
+      <c r="U55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="2">
+        <v>2520000000000</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1">
         <v>40</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C56" s="1">
+      <c r="G56" s="1">
         <v>96.8</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="2">
+      <c r="J56" s="2">
         <v>20000000000000</v>
       </c>
-      <c r="G56" s="2">
+      <c r="K56" s="2">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="1" t="s">
+      <c r="M56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="S56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="T56" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q56" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1">
+      <c r="U56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="2">
+        <v>1900000000000</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
         <v>41</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C57" s="1">
+      <c r="G57" s="1">
         <v>0.11</v>
       </c>
-      <c r="D57" s="3">
+      <c r="H57" s="3">
         <v>0.3</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="2">
+      <c r="J57" s="2">
         <v>19800000000000</v>
       </c>
-      <c r="G57" s="2">
+      <c r="K57" s="2">
         <v>0.11</v>
       </c>
-      <c r="H57" s="2">
+      <c r="L57" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="1" t="s">
+      <c r="M57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="P57" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="S57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="T57" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Q57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1">
+      <c r="U57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="2">
+        <v>1860000000000</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
         <v>42</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C58" s="2">
+      <c r="G58" s="2">
         <v>2.7399999999999999E-14</v>
       </c>
-      <c r="D58" s="2">
+      <c r="H58" s="2">
         <v>3.1999999999999999E-15</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="2">
+      <c r="J58" s="2">
         <v>19300000000000</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="S58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="T58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1">
+      <c r="U58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="2">
+        <v>1760000000000</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
         <v>43</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="2">
+      <c r="G59" s="2">
         <v>1.7E-21</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="2">
+      <c r="J59" s="2">
         <v>19300000000000</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="S59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="T59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1">
+      <c r="U59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="2">
+        <v>1760000000000</v>
+      </c>
+      <c r="B60" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1">
         <v>44</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="1">
+      <c r="G60" s="1">
         <v>87.5</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="2">
+      <c r="J60" s="2">
         <v>18700000000000</v>
       </c>
-      <c r="G60" s="2">
+      <c r="K60" s="2">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="1" t="s">
+      <c r="M60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="S60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="T60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1">
+      <c r="U60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="2">
+        <v>1620000000000</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1">
         <v>45</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="2">
+      <c r="G61" s="2">
         <v>2.19E-14</v>
       </c>
-      <c r="D61" s="2">
+      <c r="H61" s="2">
         <v>4.4999999999999998E-15</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F61" s="2">
+      <c r="J61" s="2">
         <v>18300000000000</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="Q61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="S61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="T61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1">
+      <c r="U61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="2">
+        <v>1470000000000</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
         <v>46</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="2">
+      <c r="G62" s="2">
         <v>2.2199999999999999E-14</v>
       </c>
-      <c r="D62" s="2">
+      <c r="H62" s="2">
         <v>2.0999999999999998E-15</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="2">
+      <c r="J62" s="2">
         <v>17600000000000</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="Q62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="S62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="T62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q62" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1">
+      <c r="U62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="2">
+        <v>353000000000</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1">
         <v>47</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C63" s="2">
+      <c r="G63" s="2">
         <v>1.65E-21</v>
       </c>
-      <c r="D63" s="2">
+      <c r="H63" s="2">
         <v>5.0000000000000002E-23</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F63" s="2">
+      <c r="J63" s="2">
         <v>17600000000000</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="Q63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="S63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="T63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1">
+      <c r="U63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="2">
+        <v>115000000000</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3.3599999999999997E-5</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
         <v>48</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="2">
+      <c r="J64" s="2">
         <v>16700000000000</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="P64" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="Q64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="S64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="T64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1">
+      <c r="U64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="2">
+        <v>1420000000</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1">
         <v>49</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="2">
+      <c r="G65" s="2">
         <v>3.1399999999999997E-14</v>
       </c>
-      <c r="D65" s="2">
+      <c r="H65" s="2">
         <v>4.8999999999999999E-15</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="2">
+      <c r="J65" s="2">
         <v>16000000000000</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="P65" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="Q65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="S65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="T65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1">
+      <c r="U65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="2">
+        <v>1400000000</v>
+      </c>
+      <c r="B66" s="2">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1">
         <v>50</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="2">
+      <c r="G66" s="2">
         <v>1.86E-21</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="2">
+      <c r="J66" s="2">
         <v>16000000000000</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1">
+      <c r="U66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="E67" s="1">
         <v>51</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="1">
+      <c r="G67" s="1">
         <v>230.1</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="2">
+      <c r="J67" s="2">
         <v>15000000000000</v>
       </c>
-      <c r="G67" s="2">
+      <c r="K67" s="2">
         <v>0.23</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J67" s="1" t="s">
+      <c r="M67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="P67" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="Q67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="S67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="T67" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1">
+      <c r="U67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="E68" s="1">
         <v>52</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="1">
+      <c r="G68" s="1">
         <v>0.5</v>
       </c>
-      <c r="D68" s="3">
+      <c r="H68" s="3">
         <v>0.3</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F68" s="2">
+      <c r="J68" s="2">
         <v>12600000000000</v>
       </c>
-      <c r="G68" s="2">
+      <c r="K68" s="2">
         <v>0.5</v>
       </c>
-      <c r="H68" s="2">
+      <c r="L68" s="2">
         <v>0.15</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="1" t="s">
+      <c r="M68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="O68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="P68" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="Q68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="S68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P68" s="1" t="s">
+      <c r="T68" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Q68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1">
+      <c r="U68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="E69" s="1">
         <v>53</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="2">
+      <c r="J69" s="2">
         <v>12300000000000</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="L69" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="N69" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="O69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="Q69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="S69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="T69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1">
+      <c r="U69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="E70" s="1">
         <v>54</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="2">
+      <c r="J70" s="2">
         <v>12300000000000</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="O70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="P70" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="Q70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="S70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="T70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q70" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1">
+      <c r="U70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="E71" s="1">
         <v>55</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="1">
+      <c r="G71" s="1">
         <v>0.54</v>
       </c>
-      <c r="D71" s="1">
+      <c r="H71" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="2">
+      <c r="J71" s="2">
         <v>12000000000000</v>
       </c>
-      <c r="G71" s="2">
+      <c r="K71" s="2">
         <v>0.54</v>
       </c>
-      <c r="H71" s="2">
+      <c r="L71" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J71" s="1" t="s">
+      <c r="M71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="P71" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="S71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="T71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="U71" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1">
+    <row r="72" spans="1:21">
+      <c r="E72" s="1">
         <v>56</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="1">
+      <c r="G72" s="1">
         <v>750.5</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F72" s="2">
+      <c r="J72" s="2">
         <v>12000000000000</v>
       </c>
-      <c r="G72" s="2">
+      <c r="K72" s="2">
         <v>0.751</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="1" t="s">
+      <c r="M72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="P72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="Q72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="S72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="T72" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q72" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1">
+      <c r="U72" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="E73" s="1">
         <v>57</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="1">
+      <c r="G73" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D73" s="1">
+      <c r="H73" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F73" s="2">
+      <c r="J73" s="2">
         <v>12000000000000</v>
       </c>
-      <c r="G73" s="2">
+      <c r="K73" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H73" s="2">
+      <c r="L73" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J73" s="1" t="s">
+      <c r="M73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="O73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="P73" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="Q73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="S73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P73" s="1" t="s">
+      <c r="T73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="U73" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1">
+    <row r="74" spans="1:21">
+      <c r="E74" s="1">
         <v>58</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="2">
+      <c r="G74" s="2">
         <v>0.54949999999999999</v>
       </c>
-      <c r="D74" s="3">
+      <c r="H74" s="3">
         <v>0.13</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="2">
+      <c r="J74" s="2">
         <v>12000000000000</v>
       </c>
-      <c r="G74" s="2">
+      <c r="K74" s="2">
         <v>0.54900000000000004</v>
       </c>
-      <c r="H74" s="2">
+      <c r="L74" s="2">
         <v>1.55E-2</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J74" s="1" t="s">
+      <c r="M74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N74" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="P74" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="Q74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="R74" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="S74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P74" s="1" t="s">
+      <c r="T74" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1">
+      <c r="U74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="E75" s="1">
         <v>59</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="2">
+      <c r="J75" s="2">
         <v>11600000000000</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="P75" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="Q75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="S75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="T75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1">
+      <c r="U75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="E76" s="1">
         <v>60</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F76" s="2">
+      <c r="J76" s="2">
         <v>11600000000000</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="P76" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="Q76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="R76" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="S76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="T76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q76" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="1">
+      <c r="U76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="E77" s="1">
         <v>61</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="2">
+      <c r="J77" s="2">
         <v>11500000000000</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="P77" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="Q77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="R77" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="S77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P77" s="1" t="s">
+      <c r="T77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q77" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="1">
+      <c r="U77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="E78" s="1">
         <v>62</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F78" s="2">
+      <c r="J78" s="2">
         <v>10600000000000</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="O78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="P78" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="Q78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="R78" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="S78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P78" s="1" t="s">
+      <c r="T78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q78" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="1">
+      <c r="U78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="E79" s="1">
         <v>63</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="1">
+      <c r="G79" s="1">
         <v>1689.3</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F79" s="2">
+      <c r="J79" s="2">
         <v>9990000000000</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J79" s="1" t="s">
+      <c r="M79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N79" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="O79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="P79" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="Q79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="S79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="T79" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q79" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="1">
+      <c r="U79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="E80" s="1">
         <v>64</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="2">
+      <c r="G80" s="2">
         <v>4.8199999999999999E-14</v>
       </c>
-      <c r="D80" s="2">
+      <c r="H80" s="2">
         <v>1.9400000000000001E-14</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>8950000000000</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="P80" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="Q80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="S80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="T80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q80" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1">
+      <c r="U80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:21">
+      <c r="E81" s="1">
         <v>65</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="2">
+      <c r="G81" s="2">
         <v>1.3719999999999999E-20</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F81" s="2">
+      <c r="J81" s="2">
         <v>8950000000000</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="P81" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="Q81" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="R81" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O81" s="1" t="s">
+      <c r="S81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P81" s="1" t="s">
+      <c r="T81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q81" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1">
+      <c r="U81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:21">
+      <c r="E82" s="1">
         <v>66</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="1">
+      <c r="G82" s="1">
         <v>5.54</v>
       </c>
-      <c r="D82" s="1">
+      <c r="H82" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F82" s="2">
+      <c r="J82" s="2">
         <v>5000000000000</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H82" s="2">
+      <c r="L82" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J82" s="1" t="s">
+      <c r="M82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="O82" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="P82" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="Q82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="R82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="S82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="T82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q82" s="1" t="s">
+      <c r="U82" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1">
+    <row r="83" spans="5:21">
+      <c r="E83" s="1">
         <v>67</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="1">
+      <c r="G83" s="1">
         <v>5.28</v>
       </c>
-      <c r="D83" s="1">
+      <c r="H83" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="2">
+      <c r="J83" s="2">
         <v>5000000000000</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H83" s="2">
+      <c r="L83" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="1" t="s">
+      <c r="M83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="P83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="Q83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="R83" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O83" s="1" t="s">
+      <c r="S83" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P83" s="1" t="s">
+      <c r="T83" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q83" s="1" t="s">
+      <c r="U83" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="1">
+    <row r="84" spans="5:21">
+      <c r="E84" s="1">
         <v>68</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D84" s="3">
+      <c r="H84" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F84" s="2">
+      <c r="J84" s="2">
         <v>5000000000000</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H84" s="2">
+      <c r="L84" s="2">
         <v>0.38100000000000001</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J84" s="1" t="s">
+      <c r="M84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N84" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="P84" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="Q84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="R84" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="S84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P84" s="1" t="s">
+      <c r="T84" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q84" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="1">
+      <c r="U84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:21">
+      <c r="E85" s="1">
         <v>69</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="1">
+      <c r="G85" s="1">
         <v>6.8</v>
       </c>
-      <c r="D85" s="3">
+      <c r="H85" s="3">
         <v>0.3</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="2">
+      <c r="J85" s="2">
         <v>4930000000000</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J85" s="1" t="s">
+      <c r="M85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="O85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="P85" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="Q85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="S85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P85" s="1" t="s">
+      <c r="T85" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q85" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="1">
+      <c r="U85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:21">
+      <c r="E86" s="1">
         <v>70</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="1">
+      <c r="G86" s="1">
         <v>5.45</v>
       </c>
-      <c r="D86" s="3">
+      <c r="H86" s="3">
         <v>0.3</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="2">
+      <c r="J86" s="2">
         <v>3150000000000</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="L86" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J86" s="1" t="s">
+      <c r="M86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="O86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="P86" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="Q86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O86" s="1" t="s">
+      <c r="S86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="T86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q86" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="1">
+      <c r="U86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:21">
+      <c r="E87" s="1">
         <v>71</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="1">
+      <c r="G87" s="1">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D87" s="1">
+      <c r="H87" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F87" s="2">
+      <c r="J87" s="2">
         <v>3000000000000</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H87" s="2">
+      <c r="L87" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J87" s="1" t="s">
+      <c r="M87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="O87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="P87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="Q87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="R87" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="S87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P87" s="1" t="s">
+      <c r="T87" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q87" s="1" t="s">
+      <c r="U87" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="1">
+    <row r="88" spans="5:21">
+      <c r="E88" s="1">
         <v>72</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="3">
+      <c r="H88" s="3">
         <v>0.08</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F88" s="2">
+      <c r="J88" s="2">
         <v>3000000000000</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H88" s="2">
+      <c r="L88" s="2">
         <v>0.35599999999999998</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J88" s="1" t="s">
+      <c r="M88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N88" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="P88" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="Q88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="R88" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="S88" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="T88" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q88" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="1">
+      <c r="U88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="5:21">
+      <c r="E89" s="1">
         <v>73</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C89" s="1">
+      <c r="G89" s="1">
         <v>4.58</v>
       </c>
-      <c r="D89" s="1">
+      <c r="H89" s="1">
         <v>0.1</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F89" s="2">
+      <c r="J89" s="2">
         <v>3000000000000</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H89" s="2">
+      <c r="L89" s="2">
         <v>0.1</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="1" t="s">
+      <c r="M89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="P89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="Q89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="R89" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="S89" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P89" s="1" t="s">
+      <c r="T89" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q89" s="1" t="s">
+      <c r="U89" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="1">
+    <row r="90" spans="5:21">
+      <c r="E90" s="1">
         <v>74</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C90" s="1">
+      <c r="G90" s="1">
         <v>3.55</v>
       </c>
-      <c r="D90" s="3">
+      <c r="H90" s="3">
         <v>0.3</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F90" s="2">
+      <c r="J90" s="2">
         <v>2520000000000</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J90" s="1" t="s">
+      <c r="M90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="O90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="P90" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="Q90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="S90" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P90" s="1" t="s">
+      <c r="T90" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q90" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="1">
+      <c r="U90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:21">
+      <c r="E91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="1">
+      <c r="G91" s="1">
         <v>3.3</v>
       </c>
-      <c r="D91" s="1">
+      <c r="H91" s="1">
         <v>1</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F91" s="2">
+      <c r="J91" s="2">
         <v>1900000000000</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="1" t="s">
+      <c r="M91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="P91" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="R91" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="S91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="T91" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q91" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="1">
+      <c r="U91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:21">
+      <c r="E92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C92" s="1">
+      <c r="G92" s="1">
         <v>2.7</v>
       </c>
-      <c r="D92" s="3">
+      <c r="H92" s="3">
         <v>0.3</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F92" s="2">
+      <c r="J92" s="2">
         <v>1860000000000</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H92" s="2">
+      <c r="L92" s="2">
         <v>0.81</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J92" s="1" t="s">
+      <c r="M92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N92" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="P92" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="Q92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="S92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="T92" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q92" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="1">
+      <c r="U92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:21">
+      <c r="E93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C93" s="1">
+      <c r="G93" s="1">
         <v>3.09</v>
       </c>
-      <c r="D93" s="3">
+      <c r="H93" s="3">
         <v>0.3</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F93" s="2">
+      <c r="J93" s="2">
         <v>1760000000000</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H93" s="2">
+      <c r="L93" s="2">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J93" s="1" t="s">
+      <c r="M93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N93" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="P93" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="Q93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="R93" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="S93" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P93" s="1" t="s">
+      <c r="T93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q93" s="1" t="s">
+      <c r="U93" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="1">
+    <row r="94" spans="5:21">
+      <c r="E94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C94" s="1">
+      <c r="G94" s="1">
         <v>6.1</v>
       </c>
-      <c r="D94" s="1">
+      <c r="H94" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F94" s="2">
+      <c r="J94" s="2">
         <v>1760000000000</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="1" t="s">
+      <c r="M94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="R94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="S94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="T94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q94" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="1">
+      <c r="U94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:21">
+      <c r="E95" s="1">
         <v>79</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C95" s="1">
+      <c r="G95" s="1">
         <v>1.95</v>
       </c>
-      <c r="D95" s="3">
+      <c r="H95" s="3">
         <v>0.3</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F95" s="2">
+      <c r="J95" s="2">
         <v>1620000000000</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H95" s="2">
+      <c r="L95" s="2">
         <v>0.58499999999999996</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J95" s="1" t="s">
+      <c r="M95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="P95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="Q95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="S95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P95" s="1" t="s">
+      <c r="T95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q95" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="1">
+      <c r="U95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:21">
+      <c r="E96" s="1">
         <v>80</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="1">
+      <c r="G96" s="1">
         <v>1.7</v>
       </c>
-      <c r="D96" s="3">
+      <c r="H96" s="3">
         <v>0.3</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F96" s="2">
+      <c r="J96" s="2">
         <v>1470000000000</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H96" s="2">
+      <c r="L96" s="2">
         <v>0.51</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J96" s="1" t="s">
+      <c r="M96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N96" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="P96" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="Q96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="S96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="T96" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q96" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="1">
+      <c r="U96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:21">
+      <c r="E97" s="1">
         <v>81</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F97" s="2">
+      <c r="J97" s="2">
         <v>666000000000</v>
       </c>
-      <c r="H97" s="2">
+      <c r="L97" s="2">
         <v>0.2</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J97" s="1" t="s">
+      <c r="M97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="P97" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="Q97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O97" s="1" t="s">
+      <c r="S97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P97" s="1" t="s">
+      <c r="T97" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q97" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="A98" s="1">
+      <c r="U97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="5:21">
+      <c r="E98" s="1">
         <v>82</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="1">
+      <c r="G98" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="D98" s="3">
+      <c r="H98" s="3">
         <v>0.3</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F98" s="2">
+      <c r="J98" s="2">
         <v>353000000000</v>
       </c>
-      <c r="G98" s="2">
+      <c r="K98" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="H98" s="2">
+      <c r="L98" s="2">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J98" s="1" t="s">
+      <c r="M98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="O98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="P98" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="Q98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O98" s="1" t="s">
+      <c r="S98" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P98" s="1" t="s">
+      <c r="T98" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q98" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="1">
+      <c r="U98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="5:21">
+      <c r="E99" s="1">
         <v>83</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="1">
+      <c r="G99" s="1">
         <v>11.7</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="2">
+      <c r="J99" s="2">
         <v>115000000000</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="K99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="O99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="P99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="Q99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="R99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O99" s="1" t="s">
+      <c r="S99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P99" s="1" t="s">
+      <c r="T99" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q99" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="1">
+      <c r="U99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:21">
+      <c r="E100" s="1">
         <v>84</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="1">
+      <c r="G100" s="1">
         <v>5.8</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="2">
+      <c r="J100" s="2">
         <v>1420000000</v>
       </c>
-      <c r="G100" s="2">
+      <c r="K100" s="2">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="1" t="s">
+      <c r="M100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="P100" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="Q100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="R100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O100" s="1" t="s">
+      <c r="S100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P100" s="1" t="s">
+      <c r="T100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q100" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="1">
+      <c r="U100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="5:21">
+      <c r="E101" s="1">
         <v>85</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="1">
+      <c r="G101" s="1">
         <v>5.9</v>
       </c>
-      <c r="D101" s="1">
+      <c r="H101" s="1">
         <v>0.5</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="2">
+      <c r="J101" s="2">
         <v>1400000000</v>
       </c>
-      <c r="G101" s="2">
+      <c r="K101" s="2">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="H101" s="2">
+      <c r="L101" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="1" t="s">
+      <c r="M101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="O101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="P101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="Q101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="R101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="1" t="s">
+      <c r="S101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P101" s="1" t="s">
+      <c r="T101" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q101" s="1" t="s">
+      <c r="U101" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>